--- a/biology/Médecine/1264_en_santé_et_médecine/1264_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1264_en_santé_et_médecine/1264_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1264_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1264_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1264 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1264_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1264_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Un hôpital et une maladrerie sont cités à Bon-Air, près de Pont-de-l'Arche, en Normandie[1].
-Fondation à Augsbourg, en Souabe, d'un hôpital réservé aux malades chroniques et placé sous l'invocation de Saint-Servais[2].
-Fondation d'un hôpital à Hof, en Bavière, sous les premiers baillis de Weida[3].
-Les statuts de l'ordre des Teutoniques prescrivent qu'un hôpital doit être établi partout où des chevaliers sont cantonnés[4].
-À Viterbe, dans la province de Rome, le chapitre des dominicains interdit aux frères de soigner les laïcs[5].
-1264-1265 : fondation de l'hôtel-Dieu de Saint-Paul[6] en Artois, par Guy III, comte de Châtillon, et sa femme, Mathilde, fille d'Henri II, duc de Brabant[7],[8].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Un hôpital et une maladrerie sont cités à Bon-Air, près de Pont-de-l'Arche, en Normandie.
+Fondation à Augsbourg, en Souabe, d'un hôpital réservé aux malades chroniques et placé sous l'invocation de Saint-Servais.
+Fondation d'un hôpital à Hof, en Bavière, sous les premiers baillis de Weida.
+Les statuts de l'ordre des Teutoniques prescrivent qu'un hôpital doit être établi partout où des chevaliers sont cantonnés.
+À Viterbe, dans la province de Rome, le chapitre des dominicains interdit aux frères de soigner les laïcs.
+1264-1265 : fondation de l'hôtel-Dieu de Saint-Paul en Artois, par Guy III, comte de Châtillon, et sa femme, Mathilde, fille d'Henri II, duc de Brabant,.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1264_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1264_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,11 +560,13 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1205-1264 : fl. Petrus Hispanus, médecin, auteur d'un traité d'ophtalmologie, de plusieurs « régimes de santé » et de divers commentaires, de Ioannitius, Galien, Hippocrate, Isaac, Constantin, Philarète ou Aristote[9].
-Vers 1210 ou 1240-1264 : fl. Roland de Parme, chirurgien italien, élève de Roger de Salerne ayant vécu à Bologne et auteur d'un important traité de chirurgie plus connu sous le nom de Rolandina[10],[11].
-1253-1264 : fl. Remy, chapelain et médecin des papes Innocent IV et Urbain IV[12].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1205-1264 : fl. Petrus Hispanus, médecin, auteur d'un traité d'ophtalmologie, de plusieurs « régimes de santé » et de divers commentaires, de Ioannitius, Galien, Hippocrate, Isaac, Constantin, Philarète ou Aristote.
+Vers 1210 ou 1240-1264 : fl. Roland de Parme, chirurgien italien, élève de Roger de Salerne ayant vécu à Bologne et auteur d'un important traité de chirurgie plus connu sous le nom de Rolandina,.
+1253-1264 : fl. Remy, chapelain et médecin des papes Innocent IV et Urbain IV.</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1264_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1264_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vers 1264 : Armengaud Blaise (mort en 1312), médecin de l'école de Montpellier, traducteur de l'arabe et de l'hébreu en latin, neveu d'Arnaud de Villeneuve, médecin de Jacques II, roi d'Aragon[13].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vers 1264 : Armengaud Blaise (mort en 1312), médecin de l'école de Montpellier, traducteur de l'arabe et de l'hébreu en latin, neveu d'Arnaud de Villeneuve, médecin de Jacques II, roi d'Aragon.
 </t>
         </is>
       </c>
